--- a/report_simplified.xlsx
+++ b/report_simplified.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhaseman/Documents/GitHub/SunshineScorecard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107DF414-226C-0C4B-B63C-F47BB5E2DB38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A2CF6-25EA-B944-A480-E418DBC5F82D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="22440" windowHeight="15680" xr2:uid="{D1C687DA-5986-BE4A-BE87-68EF5C607029}"/>
   </bookViews>
   <sheets>
-    <sheet name="report_simplified" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="180">
   <si>
-    <t>lettergrade</t>
-  </si>
-  <si>
     <t>Brannan III, Robert Charles</t>
   </si>
   <si>
@@ -49,69 +57,69 @@
     <t>Senate</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Watson, Jr., Clovis</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>Bradley, Rob</t>
+  </si>
+  <si>
+    <t>F-</t>
+  </si>
+  <si>
+    <t>Drake, Brad</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>Gainer, George B.</t>
+  </si>
+  <si>
+    <t>Trumbull, Jay</t>
+  </si>
+  <si>
+    <t>Payne, Bobby</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>Altman, Thad</t>
+  </si>
+  <si>
+    <t>Fine, Randy</t>
+  </si>
+  <si>
+    <t>Mayfield, Debbie</t>
+  </si>
+  <si>
+    <t>Plasencia, Rene "Coach P"</t>
+  </si>
+  <si>
+    <t>Sirois, Tyler I.</t>
+  </si>
+  <si>
+    <t>F+</t>
+  </si>
+  <si>
+    <t>Wright, Tom A.</t>
+  </si>
+  <si>
+    <t>Book, Lauren</t>
+  </si>
+  <si>
     <t>F--</t>
   </si>
   <si>
-    <t>Watson, Jr., Clovis</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>Bradley, Rob</t>
-  </si>
-  <si>
-    <t>F-</t>
-  </si>
-  <si>
-    <t>Drake, Brad</t>
-  </si>
-  <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t>Gainer, George B.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Trumbull, Jay</t>
-  </si>
-  <si>
-    <t>Payne, Bobby</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>Altman, Thad</t>
-  </si>
-  <si>
-    <t>Fine, Randy</t>
-  </si>
-  <si>
-    <t>Mayfield, Debbie</t>
-  </si>
-  <si>
-    <t>Plasencia, Rene "Coach P"</t>
-  </si>
-  <si>
-    <t>Sirois, Tyler I.</t>
-  </si>
-  <si>
-    <t>F+</t>
-  </si>
-  <si>
-    <t>Wright, Tom A.</t>
-  </si>
-  <si>
-    <t>Book, Lauren</t>
-  </si>
-  <si>
     <t>Braynon, Oscar II</t>
   </si>
   <si>
@@ -241,6 +249,9 @@
     <t>Hutson, Travis</t>
   </si>
   <si>
+    <t>D-</t>
+  </si>
+  <si>
     <t>Renner, Paul</t>
   </si>
   <si>
@@ -367,9 +378,6 @@
     <t>Fernandez-Barquin, Juan Alfonso</t>
   </si>
   <si>
-    <t>D-</t>
-  </si>
-  <si>
     <t>Fernández, Javier E.</t>
   </si>
   <si>
@@ -560,13 +568,16 @@
   </si>
   <si>
     <t>Potential Score</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,316 +585,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -891,204 +602,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,48 +924,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC411570-BE96-1444-910A-C75626F69190}">
   <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>-6</v>
@@ -1448,19 +974,19 @@
       <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1468,39 +994,39 @@
       <c r="E3">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-9</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>-22</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1508,39 +1034,39 @@
       <c r="E5">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>-15</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>-18</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>-3</v>
@@ -1548,39 +1074,39 @@
       <c r="E7">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -1588,19 +1114,19 @@
       <c r="E9">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1608,19 +1134,19 @@
       <c r="E10">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>-6</v>
@@ -1628,19 +1154,19 @@
       <c r="E11">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>-6</v>
@@ -1648,39 +1174,39 @@
       <c r="E12">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1688,19 +1214,19 @@
       <c r="E14">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>-13</v>
@@ -1708,19 +1234,19 @@
       <c r="E15">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>-3</v>
@@ -1728,59 +1254,59 @@
       <c r="E16">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="E17">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E18">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>-9</v>
@@ -1788,19 +1314,19 @@
       <c r="E19">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>-15</v>
@@ -1808,19 +1334,19 @@
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>-9</v>
@@ -1828,19 +1354,19 @@
       <c r="E21">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>-9</v>
@@ -1848,19 +1374,19 @@
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>-13</v>
@@ -1868,19 +1394,19 @@
       <c r="E23">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1888,19 +1414,19 @@
       <c r="E24">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
-        <v>37</v>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>-3</v>
@@ -1908,19 +1434,19 @@
       <c r="E25">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>16</v>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>-6</v>
@@ -1928,19 +1454,19 @@
       <c r="E26">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
-        <v>16</v>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1948,19 +1474,19 @@
       <c r="E27">
         <v>15</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1968,19 +1494,19 @@
       <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
-        <v>43</v>
+      <c r="F28" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1988,19 +1514,19 @@
       <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29" t="s">
-        <v>6</v>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>-2</v>
@@ -2008,19 +1534,19 @@
       <c r="E30">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
-        <v>16</v>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2028,19 +1554,19 @@
       <c r="E31">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2048,39 +1574,39 @@
       <c r="E32">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="E33">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>-3</v>
@@ -2088,39 +1614,39 @@
       <c r="E34">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>16</v>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E35">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>-12</v>
@@ -2128,19 +1654,19 @@
       <c r="E36">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>27</v>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2148,39 +1674,39 @@
       <c r="E37">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2188,39 +1714,39 @@
       <c r="E39">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="E40">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>-3</v>
@@ -2228,19 +1754,19 @@
       <c r="E41">
         <v>15</v>
       </c>
-      <c r="F41" t="s">
-        <v>16</v>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>-6</v>
@@ -2248,39 +1774,39 @@
       <c r="E42">
         <v>18</v>
       </c>
-      <c r="F42" t="s">
-        <v>4</v>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E43">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>-3</v>
@@ -2288,19 +1814,19 @@
       <c r="E44">
         <v>21</v>
       </c>
-      <c r="F44" t="s">
-        <v>16</v>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2308,39 +1834,39 @@
       <c r="E45">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="E46">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>-3</v>
@@ -2348,19 +1874,19 @@
       <c r="E47">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
-        <v>16</v>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>-3</v>
@@ -2368,19 +1894,19 @@
       <c r="E48">
         <v>27</v>
       </c>
-      <c r="F48" t="s">
-        <v>16</v>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2388,19 +1914,19 @@
       <c r="E49">
         <v>12</v>
       </c>
-      <c r="F49" t="s">
-        <v>6</v>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>-3</v>
@@ -2408,19 +1934,19 @@
       <c r="E50">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
-        <v>16</v>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2428,39 +1954,39 @@
       <c r="E51">
         <v>27</v>
       </c>
-      <c r="F51" t="s">
-        <v>21</v>
+      <c r="F51" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E52">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>-3</v>
@@ -2468,19 +1994,19 @@
       <c r="E53">
         <v>27</v>
       </c>
-      <c r="F53" t="s">
-        <v>16</v>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2488,39 +2014,39 @@
       <c r="E54">
         <v>27</v>
       </c>
-      <c r="F54" t="s">
-        <v>21</v>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="E55">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>9</v>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>-3</v>
@@ -2528,28 +2054,28 @@
       <c r="E56">
         <v>21</v>
       </c>
-      <c r="F56" t="s">
-        <v>16</v>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>-9</v>
       </c>
       <c r="E57">
-        <v>21</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,10 +2083,10 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>-9</v>
@@ -2568,8 +2094,8 @@
       <c r="E58">
         <v>21</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2577,10 +2103,10 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>-6</v>
@@ -2588,8 +2114,8 @@
       <c r="E59">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
-        <v>4</v>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2597,10 +2123,10 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>-3</v>
@@ -2608,8 +2134,8 @@
       <c r="E60">
         <v>39</v>
       </c>
-      <c r="F60" t="s">
-        <v>16</v>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2617,10 +2143,10 @@
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>-6</v>
@@ -2628,8 +2154,8 @@
       <c r="E61">
         <v>24</v>
       </c>
-      <c r="F61" t="s">
-        <v>4</v>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2637,10 +2163,10 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>-3</v>
@@ -2648,8 +2174,8 @@
       <c r="E62">
         <v>21</v>
       </c>
-      <c r="F62" t="s">
-        <v>16</v>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2657,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
-      <c r="F63" t="s">
-        <v>9</v>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2677,10 +2203,10 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>-9</v>
@@ -2688,8 +2214,8 @@
       <c r="E64">
         <v>21</v>
       </c>
-      <c r="F64" t="s">
-        <v>11</v>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2697,10 +2223,10 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>-6</v>
@@ -2708,8 +2234,8 @@
       <c r="E65">
         <v>6</v>
       </c>
-      <c r="F65" t="s">
-        <v>14</v>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,10 +2243,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>-12</v>
@@ -2728,8 +2254,8 @@
       <c r="E66">
         <v>33</v>
       </c>
-      <c r="F66" t="s">
-        <v>11</v>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2737,10 +2263,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -2748,8 +2274,8 @@
       <c r="E67">
         <v>24</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2757,10 +2283,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -2768,8 +2294,8 @@
       <c r="E68">
         <v>27</v>
       </c>
-      <c r="F68" t="s">
-        <v>21</v>
+      <c r="F68" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2777,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>-15</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>-18</v>
-      </c>
-      <c r="E69">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2797,10 +2323,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2808,8 +2334,8 @@
       <c r="E70">
         <v>24</v>
       </c>
-      <c r="F70" t="s">
-        <v>6</v>
+      <c r="F70" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,10 +2343,10 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2828,8 +2354,8 @@
       <c r="E71">
         <v>24</v>
       </c>
-      <c r="F71" t="s">
-        <v>6</v>
+      <c r="F71" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2837,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>-22</v>
+        <v>-9</v>
       </c>
       <c r="E72">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
         <v>9</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2857,10 +2383,10 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2868,8 +2394,8 @@
       <c r="E73">
         <v>15</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2877,10 +2403,10 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2888,8 +2414,8 @@
       <c r="E74">
         <v>21</v>
       </c>
-      <c r="F74" t="s">
-        <v>21</v>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2897,10 +2423,10 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2908,8 +2434,8 @@
       <c r="E75">
         <v>36</v>
       </c>
-      <c r="F75" t="s">
-        <v>6</v>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2917,10 +2443,10 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>-13</v>
@@ -2928,8 +2454,8 @@
       <c r="E76">
         <v>6</v>
       </c>
-      <c r="F76" t="s">
-        <v>9</v>
+      <c r="F76" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2937,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2948,8 +2474,8 @@
       <c r="E77">
         <v>15</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2957,10 +2483,10 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2968,8 +2494,8 @@
       <c r="E78">
         <v>18</v>
       </c>
-      <c r="F78" t="s">
-        <v>6</v>
+      <c r="F78" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2977,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="E79">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2997,10 +2523,10 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>-3</v>
@@ -3008,8 +2534,8 @@
       <c r="E80">
         <v>15</v>
       </c>
-      <c r="F80" t="s">
-        <v>16</v>
+      <c r="F80" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3017,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E81">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3037,10 +2563,10 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>-6</v>
@@ -3048,8 +2574,8 @@
       <c r="E82">
         <v>18</v>
       </c>
-      <c r="F82" t="s">
-        <v>4</v>
+      <c r="F82" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,10 +2583,10 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>-6</v>
@@ -3068,8 +2594,8 @@
       <c r="E83">
         <v>24</v>
       </c>
-      <c r="F83" t="s">
-        <v>4</v>
+      <c r="F83" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3077,10 +2603,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>-3</v>
@@ -3088,8 +2614,8 @@
       <c r="E84">
         <v>15</v>
       </c>
-      <c r="F84" t="s">
-        <v>16</v>
+      <c r="F84" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3097,10 +2623,10 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -3108,8 +2634,8 @@
       <c r="E85">
         <v>18</v>
       </c>
-      <c r="F85" t="s">
-        <v>41</v>
+      <c r="F85" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3117,10 +2643,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3128,8 +2654,8 @@
       <c r="E86">
         <v>12</v>
       </c>
-      <c r="F86" t="s">
-        <v>6</v>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3137,10 +2663,10 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3148,8 +2674,8 @@
       <c r="E87">
         <v>21</v>
       </c>
-      <c r="F87" t="s">
-        <v>21</v>
+      <c r="F87" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3157,10 +2683,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>-3</v>
@@ -3168,8 +2694,8 @@
       <c r="E88">
         <v>21</v>
       </c>
-      <c r="F88" t="s">
-        <v>16</v>
+      <c r="F88" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3177,10 +2703,10 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3188,8 +2714,8 @@
       <c r="E89">
         <v>18</v>
       </c>
-      <c r="F89" t="s">
-        <v>6</v>
+      <c r="F89" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3197,10 +2723,10 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>-3</v>
@@ -3208,8 +2734,8 @@
       <c r="E90">
         <v>30</v>
       </c>
-      <c r="F90" t="s">
-        <v>16</v>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3217,19 +2743,19 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E91">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3237,10 +2763,10 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>-3</v>
@@ -3248,8 +2774,8 @@
       <c r="E92">
         <v>15</v>
       </c>
-      <c r="F92" t="s">
-        <v>16</v>
+      <c r="F92" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3257,10 +2783,10 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -3268,8 +2794,8 @@
       <c r="E93">
         <v>15</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3277,10 +2803,10 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>-6</v>
@@ -3288,8 +2814,8 @@
       <c r="E94">
         <v>30</v>
       </c>
-      <c r="F94" t="s">
-        <v>16</v>
+      <c r="F94" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3297,10 +2823,10 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
         <v>-3</v>
@@ -3308,8 +2834,8 @@
       <c r="E95">
         <v>18</v>
       </c>
-      <c r="F95" t="s">
-        <v>16</v>
+      <c r="F95" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3317,10 +2843,10 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>-6</v>
@@ -3328,8 +2854,8 @@
       <c r="E96">
         <v>18</v>
       </c>
-      <c r="F96" t="s">
-        <v>4</v>
+      <c r="F96" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3337,10 +2863,10 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>-6</v>
@@ -3348,8 +2874,8 @@
       <c r="E97">
         <v>6</v>
       </c>
-      <c r="F97" t="s">
-        <v>14</v>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3357,10 +2883,10 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>-3</v>
@@ -3368,8 +2894,8 @@
       <c r="E98">
         <v>15</v>
       </c>
-      <c r="F98" t="s">
-        <v>16</v>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3377,10 +2903,10 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>-12</v>
@@ -3388,19 +2914,19 @@
       <c r="E99">
         <v>21</v>
       </c>
-      <c r="F99" t="s">
-        <v>115</v>
+      <c r="F99" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <v>-6</v>
@@ -3408,39 +2934,39 @@
       <c r="E100">
         <v>27</v>
       </c>
-      <c r="F100" t="s">
-        <v>4</v>
+      <c r="F100" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="E101">
-        <v>24</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <v>-3</v>
@@ -3448,19 +2974,19 @@
       <c r="E102">
         <v>15</v>
       </c>
-      <c r="F102" t="s">
-        <v>16</v>
+      <c r="F102" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3468,19 +2994,19 @@
       <c r="E103">
         <v>12</v>
       </c>
-      <c r="F103" t="s">
-        <v>6</v>
+      <c r="F103" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>-3</v>
@@ -3488,19 +3014,19 @@
       <c r="E104">
         <v>15</v>
       </c>
-      <c r="F104" t="s">
-        <v>16</v>
+      <c r="F104" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3508,19 +3034,19 @@
       <c r="E105">
         <v>12</v>
       </c>
-      <c r="F105" t="s">
-        <v>6</v>
+      <c r="F105" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>-6</v>
@@ -3528,39 +3054,39 @@
       <c r="E106">
         <v>18</v>
       </c>
-      <c r="F106" t="s">
-        <v>4</v>
+      <c r="F106" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E107">
-        <v>12</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>-3</v>
@@ -3568,19 +3094,19 @@
       <c r="E108">
         <v>27</v>
       </c>
-      <c r="F108" t="s">
-        <v>16</v>
+      <c r="F108" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3588,19 +3114,19 @@
       <c r="E109">
         <v>24</v>
       </c>
-      <c r="F109" t="s">
-        <v>6</v>
+      <c r="F109" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>-5</v>
@@ -3608,39 +3134,39 @@
       <c r="E110">
         <v>15</v>
       </c>
-      <c r="F110" t="s">
-        <v>4</v>
+      <c r="F110" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="E111">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
         <v>9</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>-3</v>
@@ -3648,19 +3174,19 @@
       <c r="E112">
         <v>15</v>
       </c>
-      <c r="F112" t="s">
-        <v>16</v>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3668,19 +3194,19 @@
       <c r="E113">
         <v>12</v>
       </c>
-      <c r="F113" t="s">
-        <v>6</v>
+      <c r="F113" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3688,19 +3214,19 @@
       <c r="E114">
         <v>18</v>
       </c>
-      <c r="F114" t="s">
-        <v>6</v>
+      <c r="F114" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -3708,39 +3234,39 @@
       <c r="E115">
         <v>18</v>
       </c>
-      <c r="F115" t="s">
-        <v>41</v>
+      <c r="F115" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E116">
-        <v>15</v>
-      </c>
-      <c r="F116" t="s">
-        <v>115</v>
+        <v>9</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3748,19 +3274,19 @@
       <c r="E117">
         <v>12</v>
       </c>
-      <c r="F117" t="s">
-        <v>6</v>
+      <c r="F117" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>-6</v>
@@ -3768,19 +3294,19 @@
       <c r="E118">
         <v>24</v>
       </c>
-      <c r="F118" t="s">
-        <v>4</v>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3788,19 +3314,19 @@
       <c r="E119">
         <v>12</v>
       </c>
-      <c r="F119" t="s">
-        <v>6</v>
+      <c r="F119" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>-6</v>
@@ -3808,19 +3334,19 @@
       <c r="E120">
         <v>21</v>
       </c>
-      <c r="F120" t="s">
-        <v>4</v>
+      <c r="F120" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -3828,39 +3354,39 @@
       <c r="E121">
         <v>21</v>
       </c>
-      <c r="F121" t="s">
-        <v>21</v>
+      <c r="F121" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E122">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
-        <v>115</v>
+        <v>9</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3868,19 +3394,19 @@
       <c r="E123">
         <v>15</v>
       </c>
-      <c r="F123" t="s">
-        <v>6</v>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>-6</v>
@@ -3888,19 +3414,19 @@
       <c r="E124">
         <v>21</v>
       </c>
-      <c r="F124" t="s">
-        <v>4</v>
+      <c r="F124" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3908,19 +3434,19 @@
       <c r="E125">
         <v>12</v>
       </c>
-      <c r="F125" t="s">
-        <v>6</v>
+      <c r="F125" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3928,19 +3454,19 @@
       <c r="E126">
         <v>18</v>
       </c>
-      <c r="F126" t="s">
-        <v>6</v>
+      <c r="F126" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3948,19 +3474,19 @@
       <c r="E127">
         <v>12</v>
       </c>
-      <c r="F127" t="s">
-        <v>6</v>
+      <c r="F127" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3968,19 +3494,19 @@
       <c r="E128">
         <v>6</v>
       </c>
-      <c r="F128" t="s">
-        <v>6</v>
+      <c r="F128" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>-3</v>
@@ -3988,19 +3514,19 @@
       <c r="E129">
         <v>15</v>
       </c>
-      <c r="F129" t="s">
-        <v>16</v>
+      <c r="F129" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -4008,19 +3534,19 @@
       <c r="E130">
         <v>15</v>
       </c>
-      <c r="F130" t="s">
-        <v>12</v>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4028,19 +3554,19 @@
       <c r="E131">
         <v>15</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -4048,39 +3574,39 @@
       <c r="E132">
         <v>24</v>
       </c>
-      <c r="F132" t="s">
-        <v>12</v>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E133">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>-3</v>
@@ -4088,19 +3614,19 @@
       <c r="E134">
         <v>24</v>
       </c>
-      <c r="F134" t="s">
-        <v>16</v>
+      <c r="F134" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -4108,19 +3634,19 @@
       <c r="E135">
         <v>15</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -4128,19 +3654,19 @@
       <c r="E136">
         <v>24</v>
       </c>
-      <c r="F136" t="s">
-        <v>21</v>
+      <c r="F136" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4148,19 +3674,19 @@
       <c r="E137">
         <v>15</v>
       </c>
-      <c r="F137" t="s">
-        <v>12</v>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>-22</v>
@@ -4168,19 +3694,19 @@
       <c r="E138">
         <v>18</v>
       </c>
-      <c r="F138" t="s">
-        <v>9</v>
+      <c r="F138" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>-3</v>
@@ -4188,19 +3714,19 @@
       <c r="E139">
         <v>15</v>
       </c>
-      <c r="F139" t="s">
-        <v>16</v>
+      <c r="F139" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <v>-13</v>
@@ -4208,39 +3734,39 @@
       <c r="E140">
         <v>27</v>
       </c>
-      <c r="F140" t="s">
-        <v>115</v>
+      <c r="F140" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>-18</v>
+      </c>
+      <c r="E141">
+        <v>21</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141">
-        <v>-37</v>
-      </c>
-      <c r="E141">
-        <v>30</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142">
         <v>-4</v>
@@ -4248,19 +3774,19 @@
       <c r="E142">
         <v>27</v>
       </c>
-      <c r="F142" t="s">
-        <v>16</v>
+      <c r="F142" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>-9</v>
@@ -4268,19 +3794,19 @@
       <c r="E143">
         <v>27</v>
       </c>
-      <c r="F143" t="s">
-        <v>4</v>
+      <c r="F143" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>-13</v>
@@ -4288,19 +3814,19 @@
       <c r="E144">
         <v>30</v>
       </c>
-      <c r="F144" t="s">
-        <v>11</v>
+      <c r="F144" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145">
         <v>-3</v>
@@ -4308,19 +3834,19 @@
       <c r="E145">
         <v>15</v>
       </c>
-      <c r="F145" t="s">
-        <v>16</v>
+      <c r="F145" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4328,19 +3854,19 @@
       <c r="E146">
         <v>18</v>
       </c>
-      <c r="F146" t="s">
-        <v>6</v>
+      <c r="F146" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4348,19 +3874,19 @@
       <c r="E147">
         <v>12</v>
       </c>
-      <c r="F147" t="s">
-        <v>6</v>
+      <c r="F147" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148">
         <v>-6</v>
@@ -4368,19 +3894,19 @@
       <c r="E148">
         <v>18</v>
       </c>
-      <c r="F148" t="s">
-        <v>4</v>
+      <c r="F148" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -4388,19 +3914,19 @@
       <c r="E149">
         <v>15</v>
       </c>
-      <c r="F149" t="s">
-        <v>12</v>
+      <c r="F149" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>-6</v>
@@ -4408,19 +3934,19 @@
       <c r="E150">
         <v>36</v>
       </c>
-      <c r="F150" t="s">
-        <v>16</v>
+      <c r="F150" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>-3</v>
@@ -4428,39 +3954,39 @@
       <c r="E151">
         <v>39</v>
       </c>
-      <c r="F151" t="s">
-        <v>16</v>
+      <c r="F151" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E152">
-        <v>18</v>
-      </c>
-      <c r="F152" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4468,19 +3994,19 @@
       <c r="E153">
         <v>12</v>
       </c>
-      <c r="F153" t="s">
-        <v>6</v>
+      <c r="F153" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -4488,19 +4014,19 @@
       <c r="E154">
         <v>18</v>
       </c>
-      <c r="F154" t="s">
-        <v>6</v>
+      <c r="F154" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -4508,19 +4034,19 @@
       <c r="E155">
         <v>15</v>
       </c>
-      <c r="F155" t="s">
-        <v>6</v>
+      <c r="F155" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>-3</v>
@@ -4528,19 +4054,19 @@
       <c r="E156">
         <v>15</v>
       </c>
-      <c r="F156" t="s">
-        <v>16</v>
+      <c r="F156" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>-10</v>
@@ -4548,19 +4074,19 @@
       <c r="E157">
         <v>15</v>
       </c>
-      <c r="F157" t="s">
-        <v>27</v>
+      <c r="F157" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -4568,11 +4094,11 @@
       <c r="E158">
         <v>18</v>
       </c>
-      <c r="F158" t="s">
-        <v>6</v>
+      <c r="F158" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>